--- a/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业新产品销售收入.xlsx
+++ b/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业新产品销售收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>44792465.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>200879220.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14584253.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14677320.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>64328994.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12845566.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23170434.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2795216.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9208861.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2549037.4</v>
+      </c>
       <c r="L2" t="n">
-        <v>228085839.3</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>1005827244.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3881170.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2079770.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>34103900.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>669279</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2464674.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10968601.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>22770.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14928820.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>11156173.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>171814.3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1799907</v>
+      </c>
+      <c r="X2" t="n">
+        <v>109980157</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5078221.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11571278.8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>592611.9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>32539362</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8075744.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>182267800.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>59293577.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10182264</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15547665.8</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>14523911.7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>534697.3</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6814431.2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7833814.6</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>68352484.2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>322942</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51792189.5</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>20041824.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>78730818.40000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14392962</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29286008.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3691488.2</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2908385.9</v>
+      </c>
       <c r="L3" t="n">
-        <v>570270986</v>
+        <v>1105297711.1</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>39906367.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3479857.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3233002.4</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>137827.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13836853.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>11100652.6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>586644.6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1971995.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>117922424.6</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>17420808.7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>163294.9</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>33711924.3</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>194715449.1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>62773071.9</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11255337.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23685735</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17836658.3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>523506.8</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8444769.1</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>75917476.09999999</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>360102.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58947065.1</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>21216452.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91376297.59999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15093388.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36061673.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4360006.2</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>3910684.8</v>
+      </c>
       <c r="L4" t="n">
-        <v>658382000</v>
+        <v>1284606903.2</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>51915643.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3113695.9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3355673.7</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>132749</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15913129.8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11393445.9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>158475</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2221947.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>138605057.7</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>26469415.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>61155.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40512571</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>241635185.7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>72693612.59999999</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13822519.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>27219666.1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>24108128.4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>475532.6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10968404.2</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>79719165.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>385563.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44792465.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>200879220.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14584253.3</v>
-      </c>
+        <v>61128090.3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>14677320.8</v>
+        <v>24650632.4</v>
       </c>
       <c r="F5" t="n">
-        <v>64328994.8</v>
+        <v>101691212.8</v>
       </c>
       <c r="G5" t="n">
-        <v>12845566.2</v>
+        <v>15845079.8</v>
       </c>
       <c r="H5" t="n">
-        <v>23170434.7</v>
+        <v>43018345.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2795216.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9208861.5</v>
-      </c>
+        <v>5133460.9</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>2549037.4</v>
+        <v>5093831.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1005827244.7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3881170.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2079770.1</v>
-      </c>
+        <v>1428952867</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>34103900.8</v>
+        <v>59403446.1</v>
       </c>
       <c r="P5" t="n">
-        <v>669279</v>
+        <v>1282013.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2464674.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>10968601.1</v>
-      </c>
+        <v>4728976.4</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>22770.5</v>
+        <v>111353.4</v>
       </c>
       <c r="T5" t="n">
-        <v>14928820.2</v>
+        <v>15222666.6</v>
       </c>
       <c r="U5" t="n">
-        <v>11156173.4</v>
+        <v>8979203</v>
       </c>
       <c r="V5" t="n">
-        <v>171814.3</v>
+        <v>158789.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1799907</v>
+        <v>2114387.7</v>
       </c>
       <c r="X5" t="n">
-        <v>109980157</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5078221.2</v>
-      </c>
+        <v>161569917.4</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>11571278.8</v>
+        <v>28647574.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>592611.9</v>
+        <v>236906.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>32539362</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8075744.5</v>
-      </c>
+        <v>43107326.8</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>182267800.5</v>
+        <v>267651601.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>59293577.5</v>
+        <v>76409126.90000001</v>
       </c>
       <c r="AF5" t="n">
-        <v>10182264</v>
+        <v>15410581.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>15547665.8</v>
+        <v>32051316.1</v>
       </c>
       <c r="AH5" t="n">
-        <v>14523911.7</v>
+        <v>26010894.7</v>
       </c>
       <c r="AI5" t="n">
-        <v>534697.3</v>
+        <v>672074.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6814431.2</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>7833814.6</v>
-      </c>
+        <v>11587056.5</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>68352484.2</v>
+        <v>80428617.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>322942</v>
+        <v>527984.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51792189.5</v>
+        <v>60276516.6</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>20041824.2</v>
+        <v>28484303.2</v>
       </c>
       <c r="F6" t="n">
-        <v>78730818.40000001</v>
+        <v>107041486.7</v>
       </c>
       <c r="G6" t="n">
-        <v>14392962</v>
+        <v>17137249.8</v>
       </c>
       <c r="H6" t="n">
-        <v>29286008.9</v>
+        <v>47362674.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3691488.2</v>
+        <v>5658318.7</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>2908385.9</v>
+        <v>6017028.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1105297711.1</v>
+        <v>1508565472.7</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>39906367.4</v>
+        <v>58170504.2</v>
       </c>
       <c r="P6" t="n">
-        <v>3479857.5</v>
+        <v>1517150.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3233002.4</v>
+        <v>5336648.6</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>137827.4</v>
+        <v>201342.6</v>
       </c>
       <c r="T6" t="n">
-        <v>13836853.2</v>
+        <v>16507421.7</v>
       </c>
       <c r="U6" t="n">
-        <v>11100652.6</v>
+        <v>5846632.6</v>
       </c>
       <c r="V6" t="n">
-        <v>586644.6</v>
+        <v>265702.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1971995.9</v>
+        <v>2492720.8</v>
       </c>
       <c r="X6" t="n">
-        <v>117922424.6</v>
+        <v>165025929</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>17420808.7</v>
+        <v>25079048.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>163294.9</v>
+        <v>618503.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>33711924.3</v>
+        <v>47421038</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>194715449.1</v>
+        <v>306577277.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>62773071.9</v>
+        <v>80435662.09999999</v>
       </c>
       <c r="AF6" t="n">
-        <v>11255337.1</v>
+        <v>16688026.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>23685735</v>
+        <v>35548896.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>17836658.3</v>
+        <v>29010266.7</v>
       </c>
       <c r="AI6" t="n">
-        <v>523506.8</v>
+        <v>888092</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8444769.1</v>
+        <v>13345183.2</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>75917476.09999999</v>
+        <v>66290939.6</v>
       </c>
       <c r="AM6" t="n">
-        <v>360102.7</v>
+        <v>307215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58947065.1</v>
+        <v>64300459.4</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>21216452.9</v>
+        <v>33319427.7</v>
       </c>
       <c r="F7" t="n">
-        <v>91376297.59999999</v>
+        <v>117622696.4</v>
       </c>
       <c r="G7" t="n">
-        <v>15093388.4</v>
+        <v>18454130.1</v>
       </c>
       <c r="H7" t="n">
-        <v>36061673.8</v>
+        <v>54227526.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4360006.2</v>
+        <v>6484638.8</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>3910684.8</v>
+        <v>9466171.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1284606903.2</v>
+        <v>1746041534.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>51915643.1</v>
+        <v>69760132.8</v>
       </c>
       <c r="P7" t="n">
-        <v>3113695.9</v>
+        <v>2294419.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3355673.7</v>
+        <v>6095457.9</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>132749</v>
+        <v>258053.4</v>
       </c>
       <c r="T7" t="n">
-        <v>15913129.8</v>
+        <v>17742748.8</v>
       </c>
       <c r="U7" t="n">
-        <v>11393445.9</v>
+        <v>4979234</v>
       </c>
       <c r="V7" t="n">
-        <v>158475</v>
+        <v>510130.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2221947.8</v>
+        <v>2792641.1</v>
       </c>
       <c r="X7" t="n">
-        <v>138605057.7</v>
+        <v>194090805.8</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>26469415.7</v>
+        <v>26737035.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>61155.1</v>
+        <v>952723.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>40512571</v>
+        <v>51746137.6</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>241635185.7</v>
+        <v>348386662.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>72693612.59999999</v>
+        <v>89485474.59999999</v>
       </c>
       <c r="AF7" t="n">
-        <v>13822519.6</v>
+        <v>20926494.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>27219666.1</v>
+        <v>39656070.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>24108128.4</v>
+        <v>33953918.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>475532.6</v>
+        <v>983409</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10968404.2</v>
+        <v>16039336.4</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>79719165.5</v>
+        <v>71200326.2</v>
       </c>
       <c r="AM7" t="n">
-        <v>385563.3</v>
+        <v>338905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61128090.3</v>
+        <v>73561409.09999999</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>24650632.4</v>
+        <v>33601202.2</v>
       </c>
       <c r="F8" t="n">
-        <v>101691212.8</v>
+        <v>118211469.4</v>
       </c>
       <c r="G8" t="n">
-        <v>15845079.8</v>
+        <v>20362191.5</v>
       </c>
       <c r="H8" t="n">
-        <v>43018345.3</v>
+        <v>57132497.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5133460.9</v>
+        <v>8135556.1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>5093831.5</v>
+        <v>9976305.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1428952867</v>
+        <v>1915686889.4</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>59403446.1</v>
+        <v>75496509.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1282013.8</v>
+        <v>2372374.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>4728976.4</v>
+        <v>6125699.3</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>111353.4</v>
+        <v>236200.8</v>
       </c>
       <c r="T8" t="n">
-        <v>15222666.6</v>
+        <v>16890810.2</v>
       </c>
       <c r="U8" t="n">
-        <v>8979203</v>
+        <v>10090782</v>
       </c>
       <c r="V8" t="n">
-        <v>158789.8</v>
+        <v>693055.4</v>
       </c>
       <c r="W8" t="n">
-        <v>2114387.7</v>
+        <v>3350245</v>
       </c>
       <c r="X8" t="n">
-        <v>161569917.4</v>
+        <v>212862746.2</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>28647574.7</v>
+        <v>26835999.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>236906.3</v>
+        <v>1112342.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>43107326.8</v>
+        <v>51245343.4</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>267651601.3</v>
+        <v>398752317.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>76409126.90000001</v>
+        <v>93864597.8</v>
       </c>
       <c r="AF8" t="n">
-        <v>15410581.9</v>
+        <v>24290959.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>32051316.1</v>
+        <v>44718345.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>26010894.7</v>
+        <v>41788670.1</v>
       </c>
       <c r="AI8" t="n">
-        <v>672074.9</v>
+        <v>966089.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11587056.5</v>
+        <v>15705489.9</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>80428617.5</v>
+        <v>90985290.2</v>
       </c>
       <c r="AM8" t="n">
-        <v>527984.7</v>
+        <v>630160.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60276516.6</v>
+        <v>84073382.7</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>28484303.2</v>
+        <v>31857684.5</v>
       </c>
       <c r="F9" t="n">
-        <v>107041486.7</v>
+        <v>123874658.2</v>
       </c>
       <c r="G9" t="n">
-        <v>17137249.8</v>
+        <v>22069534.2</v>
       </c>
       <c r="H9" t="n">
-        <v>47362674.5</v>
+        <v>63670361.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5658318.7</v>
+        <v>9290973.800000001</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>6017028.6</v>
+        <v>11198873.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1508565472.7</v>
+        <v>1970940693.9</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>58170504.2</v>
+        <v>80367983</v>
       </c>
       <c r="P9" t="n">
-        <v>1517150.3</v>
+        <v>2485994.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>5336648.6</v>
+        <v>5931368.7</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>201342.6</v>
+        <v>676035.8</v>
       </c>
       <c r="T9" t="n">
-        <v>16507421.7</v>
+        <v>9723199.5</v>
       </c>
       <c r="U9" t="n">
-        <v>5846632.6</v>
+        <v>10427844.9</v>
       </c>
       <c r="V9" t="n">
-        <v>265702.2</v>
+        <v>1073319.7</v>
       </c>
       <c r="W9" t="n">
-        <v>2492720.8</v>
+        <v>3960132.5</v>
       </c>
       <c r="X9" t="n">
-        <v>165025929</v>
+        <v>225188310.7</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>25079048.9</v>
+        <v>32059068.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>618503.1</v>
+        <v>1199813</v>
       </c>
       <c r="AB9" t="n">
-        <v>47421038</v>
+        <v>35772338.7</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>306577277.7</v>
+        <v>427938758</v>
       </c>
       <c r="AE9" t="n">
-        <v>80435662.09999999</v>
+        <v>100236055.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>16688026.6</v>
+        <v>29140356.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>35548896.4</v>
+        <v>51534577.1</v>
       </c>
       <c r="AH9" t="n">
-        <v>29010266.7</v>
+        <v>49171292.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>888092</v>
+        <v>1478469.2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13345183.2</v>
+        <v>16559504.4</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>66290939.6</v>
+        <v>95748048.2</v>
       </c>
       <c r="AM9" t="n">
-        <v>307215</v>
+        <v>805343.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64300459.4</v>
+        <v>89600082.8</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>33319427.7</v>
+        <v>32029999.8</v>
       </c>
       <c r="F10" t="n">
-        <v>117622696.4</v>
+        <v>118385427.4</v>
       </c>
       <c r="G10" t="n">
-        <v>18454130.1</v>
+        <v>28412216.8</v>
       </c>
       <c r="H10" t="n">
-        <v>54227526.5</v>
+        <v>66734598.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6484638.8</v>
+        <v>12103802.5</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>9466171.4</v>
+        <v>12768722.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1746041534.3</v>
+        <v>2120602637.5</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>69760132.8</v>
+        <v>79519572.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2294419.5</v>
+        <v>2067433.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>6095457.9</v>
+        <v>6798559.4</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>258053.4</v>
+        <v>793400.3</v>
       </c>
       <c r="T10" t="n">
-        <v>17742748.8</v>
+        <v>9085919.5</v>
       </c>
       <c r="U10" t="n">
-        <v>4979234</v>
+        <v>5586542.4</v>
       </c>
       <c r="V10" t="n">
-        <v>510130.1</v>
+        <v>5655523.8</v>
       </c>
       <c r="W10" t="n">
-        <v>2792641.1</v>
+        <v>4257913.9</v>
       </c>
       <c r="X10" t="n">
-        <v>194090805.8</v>
+        <v>243040112</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>26737035.9</v>
+        <v>31879700.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>952723.8</v>
+        <v>2257449.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>51746137.6</v>
+        <v>37490323.1</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>348386662.4</v>
+        <v>441509516.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>89485474.59999999</v>
+        <v>117112623.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>20926494.9</v>
+        <v>29512526.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>39656070.9</v>
+        <v>62784691.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>33953918.4</v>
+        <v>61740472.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>983409</v>
+        <v>1440718.2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16039336.4</v>
+        <v>18072560.9</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>71200326.2</v>
+        <v>105635968.7</v>
       </c>
       <c r="AM10" t="n">
-        <v>338905</v>
+        <v>835078.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73561409.09999999</v>
+        <v>115478488.6</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>33601202.2</v>
+        <v>35939680.2</v>
       </c>
       <c r="F11" t="n">
-        <v>118211469.4</v>
+        <v>130166484</v>
       </c>
       <c r="G11" t="n">
-        <v>20362191.5</v>
+        <v>22363087</v>
       </c>
       <c r="H11" t="n">
-        <v>57132497.7</v>
+        <v>76981144.09999999</v>
       </c>
       <c r="I11" t="n">
-        <v>8135556.1</v>
+        <v>13783440.9</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>9976305.5</v>
+        <v>13888926.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1915686889.4</v>
+        <v>2380736642.4</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>75496509.2</v>
+        <v>85769559.7</v>
       </c>
       <c r="P11" t="n">
-        <v>2372374.1</v>
+        <v>2040996.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>6125699.3</v>
+        <v>7262662.6</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>236200.8</v>
+        <v>964420.9</v>
       </c>
       <c r="T11" t="n">
-        <v>16890810.2</v>
+        <v>3559672.9</v>
       </c>
       <c r="U11" t="n">
-        <v>10090782</v>
+        <v>6378274.2</v>
       </c>
       <c r="V11" t="n">
-        <v>693055.4</v>
+        <v>6202087.6</v>
       </c>
       <c r="W11" t="n">
-        <v>3350245</v>
+        <v>4614025</v>
       </c>
       <c r="X11" t="n">
-        <v>212862746.2</v>
+        <v>273152216.8</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>26835999.6</v>
+        <v>35757885.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>1112342.1</v>
+        <v>1712880.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>51245343.4</v>
+        <v>41351825</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>398752317.9</v>
+        <v>509860572</v>
       </c>
       <c r="AE11" t="n">
-        <v>93864597.8</v>
+        <v>133000863.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>24290959.6</v>
+        <v>31765712.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>44718345.4</v>
+        <v>74596500</v>
       </c>
       <c r="AH11" t="n">
-        <v>41788670.1</v>
+        <v>73545448.59999999</v>
       </c>
       <c r="AI11" t="n">
-        <v>966089.7</v>
+        <v>1572909.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15705489.9</v>
+        <v>22678229.5</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>90985290.2</v>
+        <v>129353247.2</v>
       </c>
       <c r="AM11" t="n">
-        <v>630160.5</v>
+        <v>2000257.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84073382.7</v>
+        <v>128698722</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>31857684.5</v>
+        <v>49570036.6</v>
       </c>
       <c r="F12" t="n">
-        <v>123874658.2</v>
+        <v>181931701.8</v>
       </c>
       <c r="G12" t="n">
-        <v>22069534.2</v>
+        <v>29742676.3</v>
       </c>
       <c r="H12" t="n">
-        <v>63670361.4</v>
+        <v>110451212.2</v>
       </c>
       <c r="I12" t="n">
-        <v>9290973.800000001</v>
+        <v>16944161.2</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>11198873.2</v>
+        <v>18318026.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1970940693.9</v>
+        <v>2955666961</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>80367983</v>
+        <v>120241797.9</v>
       </c>
       <c r="P12" t="n">
-        <v>2485994.7</v>
+        <v>1871662.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>5931368.7</v>
+        <v>11362945.4</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>676035.8</v>
+        <v>1103134.9</v>
       </c>
       <c r="T12" t="n">
-        <v>9723199.5</v>
+        <v>4402556.6</v>
       </c>
       <c r="U12" t="n">
-        <v>10427844.9</v>
+        <v>6664035.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1073319.7</v>
+        <v>7063828.1</v>
       </c>
       <c r="W12" t="n">
-        <v>3960132.5</v>
+        <v>4239220.9</v>
       </c>
       <c r="X12" t="n">
-        <v>225188310.7</v>
+        <v>351529967.1</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>32059068.2</v>
+        <v>50698587.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>1199813</v>
+        <v>3008048</v>
       </c>
       <c r="AB12" t="n">
-        <v>35772338.7</v>
+        <v>49974828.8</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>427938758</v>
+        <v>576519411</v>
       </c>
       <c r="AE12" t="n">
-        <v>100236055.7</v>
+        <v>164759429.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>29140356.2</v>
+        <v>37989658.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>51534577.1</v>
+        <v>107220869.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>49171292.8</v>
+        <v>102712625.6</v>
       </c>
       <c r="AI12" t="n">
-        <v>1478469.2</v>
+        <v>3001995.7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16559504.4</v>
+        <v>29443749.5</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>95748048.2</v>
+        <v>185942573.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>805343.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>89600082.8</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>32029999.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>118385427.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28412216.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>66734598.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12103802.5</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>12768722.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2120602637.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>79519572.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2067433.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6798559.4</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>793400.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>9085919.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>5586542.4</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5655523.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4257913.9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>243040112</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>31879700.1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2257449.1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>37490323.1</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>441509516.4</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>117112623.8</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>29512526.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>62784691.1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>61740472.3</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1440718.2</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>18072560.9</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>105635968.7</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>835078.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>115478488.6</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>35939680.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>130166484</v>
-      </c>
-      <c r="G14" t="n">
-        <v>22363087</v>
-      </c>
-      <c r="H14" t="n">
-        <v>76981144.09999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13783440.9</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>13888926.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2380736642.4</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>85769559.7</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2040996.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7262662.6</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>964420.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3559672.9</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6378274.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6202087.6</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4614025</v>
-      </c>
-      <c r="X14" t="n">
-        <v>273152216.8</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>35757885.6</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1712880.8</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41351825</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>509860572</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>133000863.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>31765712.8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>74596500</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>73545448.59999999</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1572909.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>22678229.5</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>129353247.2</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>2000257.1</v>
+        <v>3255403</v>
       </c>
     </row>
   </sheetData>
